--- a/circuits/res_feeder.xlsx
+++ b/circuits/res_feeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3A7912-6A0F-4030-A94B-9B43DE87E865}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0116DA8-98D8-4371-97BF-EB94F6968D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -10031,8 +10031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10062,7 +10062,7 @@
         <v>194</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>212</v>
@@ -10082,7 +10082,7 @@
         <v>195</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>213</v>
@@ -10102,7 +10102,7 @@
         <v>196</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>213</v>
@@ -10122,7 +10122,7 @@
         <v>197</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>213</v>
@@ -10142,7 +10142,7 @@
         <v>198</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>213</v>
@@ -10162,7 +10162,7 @@
         <v>199</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>213</v>
@@ -10182,7 +10182,7 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>213</v>
@@ -10202,7 +10202,7 @@
         <v>201</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>213</v>
@@ -10222,7 +10222,7 @@
         <v>202</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>213</v>
@@ -10242,7 +10242,7 @@
         <v>203</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>213</v>
@@ -10262,7 +10262,7 @@
         <v>204</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>213</v>
@@ -10282,7 +10282,7 @@
         <v>205</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>213</v>
@@ -10302,7 +10302,7 @@
         <v>206</v>
       </c>
       <c r="C14">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>213</v>
@@ -10322,7 +10322,7 @@
         <v>207</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>213</v>
@@ -10342,7 +10342,7 @@
         <v>208</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>213</v>
@@ -10362,7 +10362,7 @@
         <v>209</v>
       </c>
       <c r="C17">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>213</v>
@@ -10382,7 +10382,7 @@
         <v>210</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>213</v>
@@ -10402,7 +10402,7 @@
         <v>211</v>
       </c>
       <c r="C19">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>213</v>
@@ -10789,8 +10789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -11768,7 +11768,7 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11820,10 +11820,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1.4250000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.6837479999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11850,10 +11850,10 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>4.9399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.6236995000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -11880,10 +11880,10 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>5.2249999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.7173744000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11910,10 +11910,10 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>4.4650000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.4675745E-2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11940,10 +11940,10 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>8.5000000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5.2678269E-2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,10 +11970,10 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>5.2306787E-2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12000,10 +12000,10 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>8.7177980000000006E-3</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12030,10 +12030,10 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>8.7177980000000006E-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12060,10 +12060,10 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.0897247000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12090,10 +12090,10 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.0897247000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12120,10 +12120,10 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>7.1999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3.4871189999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -12150,10 +12150,10 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>1.44E-2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6.9742379999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -12370,7 +12370,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12419,7 +12419,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -12451,7 +12451,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -12547,7 +12547,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12611,7 +12611,7 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12660,7 +12660,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12714,7 +12714,7 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -12746,7 +12746,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/circuits/res_feeder.xlsx
+++ b/circuits/res_feeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0116DA8-98D8-4371-97BF-EB94F6968D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F7D2F2-EE49-4ADB-854E-6E801E4283A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10790,7 +10790,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
         <v>1</v>

--- a/circuits/res_feeder.xlsx
+++ b/circuits/res_feeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F7D2F2-EE49-4ADB-854E-6E801E4283A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E15F9-E7EB-4603-BCD2-F0DCBE9D158D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="319">
   <si>
     <t>element</t>
   </si>
@@ -1022,18 +1022,6 @@
   </si>
   <si>
     <t>CHP diesel 1r</t>
-  </si>
-  <si>
-    <t>EV 1</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>EV 2</t>
-  </si>
-  <si>
-    <t>EV 3</t>
   </si>
 </sst>
 </file>
@@ -10789,7 +10777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -12659,8 +12647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12736,109 +12724,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.04</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M3">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.04</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M4">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.04</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>320</v>
-      </c>
-      <c r="M5">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/circuits/res_feeder.xlsx
+++ b/circuits/res_feeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E15F9-E7EB-4603-BCD2-F0DCBE9D158D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF95D3-3658-48D6-B25C-F4F0470CA7CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -10020,7 +10020,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10777,8 +10777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -12647,7 +12647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/circuits/res_feeder.xlsx
+++ b/circuits/res_feeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF95D3-3658-48D6-B25C-F4F0470CA7CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F359A-8FFC-40F9-B46F-16BEF4ABFC79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10778,7 +10778,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="L18">
         <v>1</v>
